--- a/TAS.xlsx
+++ b/TAS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>FSQTEL - TD (KRTX9AB1)</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_TD</t>
   </si>
   <si>
@@ -51,6 +57,9 @@
   </si>
   <si>
     <t>10:0</t>
+  </si>
+  <si>
+    <t>U3-4</t>
   </si>
   <si>
     <t>FSQTEL (KRTX9AB1)</t>
@@ -103,7 +112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,10 +150,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -159,15 +170,17 @@
         <v>4</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F4" s="0"/>
+      <c r="F4" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -184,7 +197,7 @@
         <v>45959.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -203,10 +216,12 @@
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -221,15 +236,17 @@
         <v>4</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="0"/>
     </row>
@@ -246,7 +263,7 @@
         <v>45966.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -265,10 +282,12 @@
       <c r="E11" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F11" s="0"/>
+      <c r="F11" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G11" s="0"/>
       <c r="H11" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="0"/>
     </row>
@@ -283,15 +302,17 @@
         <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G12" s="0"/>
       <c r="H12" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="0"/>
     </row>
@@ -308,12 +329,12 @@
         <v>45973.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>3</v>
@@ -327,16 +348,18 @@
       <c r="E15" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F15" s="0"/>
+      <c r="F15" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G15" s="0"/>
       <c r="H15" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>3</v>
@@ -345,15 +368,17 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I16" s="0"/>
     </row>
@@ -370,12 +395,12 @@
         <v>45982.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>3</v>
@@ -384,21 +409,23 @@
         <v>4</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F19" s="0"/>
+      <c r="F19" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="G19" s="0"/>
       <c r="H19" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>3</v>
@@ -412,10 +439,12 @@
       <c r="E20" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G20" s="0"/>
       <c r="H20" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I20" s="0"/>
     </row>
@@ -429,15 +458,15 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>45987.0</v>
+        <v>45989.0</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>3</v>
@@ -451,16 +480,18 @@
       <c r="E23" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F23" s="0"/>
+      <c r="F23" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G23" s="0"/>
       <c r="H23" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>3</v>
@@ -469,71 +500,19 @@
         <v>4</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F24" s="0"/>
+      <c r="F24" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G24" s="0"/>
       <c r="H24" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I24" s="0"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="1">
-        <v>45989.0</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E26" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I26" s="0"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E27" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I27" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
